--- a/datastatic/datasets/online/SDG5_Women_teacher_tertiary_OECD:2014.xlsx
+++ b/datastatic/datasets/online/SDG5_Women_teacher_tertiary_OECD:2014.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
   <si>
     <t>original_title</t>
   </si>
@@ -195,9 +195,6 @@
   </si>
   <si>
     <t>Argentina</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>Australia</t>
@@ -1770,15 +1767,9 @@
       <c r="A38" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" s="38" t="s">
-        <v>56</v>
-      </c>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
       <c r="E38" s="24"/>
       <c r="F38" s="36"/>
       <c r="G38" s="37"/>
@@ -1804,11 +1795,9 @@
     </row>
     <row r="39">
       <c r="A39" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="38" t="s">
         <v>56</v>
       </c>
+      <c r="B39" s="38"/>
       <c r="C39" s="40">
         <v>44012.0</v>
       </c>
@@ -1840,7 +1829,7 @@
     </row>
     <row r="40">
       <c r="A40" s="38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" s="40">
         <v>42555.0</v>
@@ -1876,7 +1865,7 @@
     </row>
     <row r="41">
       <c r="A41" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B41" s="40">
         <v>48168.0</v>
@@ -1912,7 +1901,7 @@
     </row>
     <row r="42">
       <c r="A42" s="38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B42" s="40">
         <v>45412.0</v>
@@ -1948,7 +1937,7 @@
     </row>
     <row r="43">
       <c r="A43" s="38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43" s="40">
         <v>49363.0</v>
@@ -1984,17 +1973,11 @@
     </row>
     <row r="44">
       <c r="A44" s="38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
-      <c r="B44" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" s="38" t="s">
-        <v>56</v>
-      </c>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
       <c r="E44" s="24"/>
       <c r="F44" s="36"/>
       <c r="G44" s="37"/>
@@ -2020,7 +2003,7 @@
     </row>
     <row r="45">
       <c r="A45" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B45" s="40">
         <v>42977.0</v>
@@ -2028,9 +2011,7 @@
       <c r="C45" s="40">
         <v>45062.0</v>
       </c>
-      <c r="D45" s="38" t="s">
-        <v>56</v>
-      </c>
+      <c r="D45" s="38"/>
       <c r="E45" s="24"/>
       <c r="F45" s="36"/>
       <c r="G45" s="36"/>
@@ -2056,17 +2037,15 @@
     </row>
     <row r="46">
       <c r="A46" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C46" s="40">
         <v>35934.0</v>
       </c>
-      <c r="D46" s="38" t="s">
-        <v>56</v>
-      </c>
+      <c r="D46" s="38"/>
       <c r="E46" s="24"/>
       <c r="F46" s="36"/>
       <c r="G46" s="37"/>
@@ -2092,7 +2071,7 @@
     </row>
     <row r="47">
       <c r="A47" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B47" s="40">
         <v>39874.0</v>
@@ -2128,17 +2107,13 @@
     </row>
     <row r="48">
       <c r="A48" s="38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B48" s="40">
         <v>41186.0</v>
       </c>
-      <c r="C48" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D48" s="38" t="s">
-        <v>56</v>
-      </c>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
       <c r="E48" s="24"/>
       <c r="F48" s="36"/>
       <c r="G48" s="37"/>
@@ -2164,17 +2139,13 @@
     </row>
     <row r="49">
       <c r="A49" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B49" s="40">
         <v>48938.0</v>
       </c>
-      <c r="C49" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D49" s="38" t="s">
-        <v>56</v>
-      </c>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
       <c r="E49" s="24"/>
       <c r="F49" s="36"/>
       <c r="G49" s="37"/>
@@ -2200,7 +2171,7 @@
     </row>
     <row r="50">
       <c r="A50" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B50" s="40">
         <v>50294.0</v>
@@ -2236,7 +2207,7 @@
     </row>
     <row r="51">
       <c r="A51" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B51" s="40">
         <v>39938.0</v>
@@ -2272,7 +2243,7 @@
     </row>
     <row r="52">
       <c r="A52" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B52" s="40">
         <v>38018.0</v>
@@ -2308,7 +2279,7 @@
     </row>
     <row r="53">
       <c r="A53" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B53" s="40">
         <v>32705.0</v>
@@ -2316,9 +2287,7 @@
       <c r="C53" s="40">
         <v>33093.0</v>
       </c>
-      <c r="D53" s="38" t="s">
-        <v>56</v>
-      </c>
+      <c r="D53" s="38"/>
       <c r="E53" s="24"/>
       <c r="F53" s="36"/>
       <c r="G53" s="37"/>
@@ -2344,7 +2313,7 @@
     </row>
     <row r="54">
       <c r="A54" s="38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B54" s="40">
         <v>43314.0</v>
@@ -2380,17 +2349,11 @@
     </row>
     <row r="55">
       <c r="A55" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
-      <c r="B55" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D55" s="38" t="s">
-        <v>56</v>
-      </c>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
       <c r="E55" s="24"/>
       <c r="F55" s="36"/>
       <c r="G55" s="37"/>
@@ -2416,17 +2379,11 @@
     </row>
     <row r="56">
       <c r="A56" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
-      <c r="B56" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="C56" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56" s="38" t="s">
-        <v>56</v>
-      </c>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
       <c r="E56" s="24"/>
       <c r="F56" s="36"/>
       <c r="G56" s="37"/>
@@ -2452,7 +2409,7 @@
     </row>
     <row r="57">
       <c r="A57" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B57" s="40">
         <v>39239.0</v>
@@ -2460,9 +2417,7 @@
       <c r="C57" s="40">
         <v>38516.0</v>
       </c>
-      <c r="D57" s="38" t="s">
-        <v>56</v>
-      </c>
+      <c r="D57" s="38"/>
       <c r="E57" s="24"/>
       <c r="F57" s="36"/>
       <c r="G57" s="37"/>
@@ -2488,7 +2443,7 @@
     </row>
     <row r="58">
       <c r="A58" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B58" s="40">
         <v>43997.0</v>
@@ -2496,9 +2451,7 @@
       <c r="C58" s="40">
         <v>43997.0</v>
       </c>
-      <c r="D58" s="38" t="s">
-        <v>56</v>
-      </c>
+      <c r="D58" s="38"/>
       <c r="E58" s="24"/>
       <c r="F58" s="36"/>
       <c r="G58" s="37"/>
@@ -2524,17 +2477,11 @@
     </row>
     <row r="59">
       <c r="A59" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
-      <c r="B59" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="C59" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D59" s="38" t="s">
-        <v>56</v>
-      </c>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
       <c r="E59" s="24"/>
       <c r="F59" s="36"/>
       <c r="G59" s="36"/>
@@ -2560,7 +2507,7 @@
     </row>
     <row r="60">
       <c r="A60" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B60" s="40">
         <v>37469.0</v>
@@ -2569,7 +2516,7 @@
         <v>36893.0</v>
       </c>
       <c r="D60" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="36"/>
@@ -2596,7 +2543,7 @@
     </row>
     <row r="61">
       <c r="A61" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B61" s="40">
         <v>26806.0</v>
@@ -2632,13 +2579,13 @@
     </row>
     <row r="62">
       <c r="A62" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B62" s="40">
         <v>34734.0</v>
       </c>
       <c r="C62" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D62" s="40">
         <v>34481.0</v>
@@ -2668,7 +2615,7 @@
     </row>
     <row r="63">
       <c r="A63" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B63" s="40">
         <v>55657.0</v>
@@ -2704,14 +2651,12 @@
     </row>
     <row r="64">
       <c r="A64" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B64" s="40">
         <v>38352.0</v>
       </c>
-      <c r="C64" s="38" t="s">
-        <v>56</v>
-      </c>
+      <c r="C64" s="38"/>
       <c r="D64" s="40">
         <v>45029.0</v>
       </c>
@@ -2740,17 +2685,11 @@
     </row>
     <row r="65">
       <c r="A65" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
-      <c r="B65" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="C65" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D65" s="38" t="s">
-        <v>56</v>
-      </c>
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
       <c r="E65" s="24"/>
       <c r="F65" s="36"/>
       <c r="G65" s="37"/>
@@ -2776,7 +2715,7 @@
     </row>
     <row r="66">
       <c r="A66" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B66" s="40">
         <v>43508.0</v>
@@ -2812,7 +2751,7 @@
     </row>
     <row r="67">
       <c r="A67" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B67" s="40">
         <v>49062.0</v>
@@ -2848,7 +2787,7 @@
     </row>
     <row r="68">
       <c r="A68" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B68" s="40">
         <v>45246.0</v>
@@ -2884,7 +2823,7 @@
     </row>
     <row r="69">
       <c r="A69" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B69" s="40">
         <v>44228.0</v>
@@ -2920,7 +2859,7 @@
     </row>
     <row r="70">
       <c r="A70" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B70" s="40">
         <v>43978.0</v>
@@ -2956,7 +2895,7 @@
     </row>
     <row r="71">
       <c r="A71" s="38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B71" s="40">
         <v>56506.0</v>
@@ -2992,7 +2931,7 @@
     </row>
     <row r="72">
       <c r="A72" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B72" s="40">
         <v>40491.0</v>
@@ -3000,9 +2939,7 @@
       <c r="C72" s="40">
         <v>40491.0</v>
       </c>
-      <c r="D72" s="38" t="s">
-        <v>56</v>
-      </c>
+      <c r="D72" s="38"/>
       <c r="E72" s="24"/>
       <c r="F72" s="36"/>
       <c r="G72" s="36"/>
@@ -3028,7 +2965,7 @@
     </row>
     <row r="73">
       <c r="A73" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B73" s="40">
         <v>44851.0</v>
@@ -3064,7 +3001,7 @@
     </row>
     <row r="74">
       <c r="A74" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B74" s="40">
         <v>38799.0</v>
@@ -3100,17 +3037,11 @@
     </row>
     <row r="75">
       <c r="A75" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
-      <c r="B75" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="C75" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D75" s="38" t="s">
-        <v>56</v>
-      </c>
+      <c r="B75" s="38"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38"/>
       <c r="E75" s="24"/>
       <c r="F75" s="24"/>
       <c r="G75" s="3"/>
@@ -3136,7 +3067,7 @@
     </row>
     <row r="76">
       <c r="A76" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B76" s="40">
         <v>41712.0</v>
@@ -3172,7 +3103,7 @@
     </row>
     <row r="77">
       <c r="A77" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B77" s="40">
         <v>43947.0</v>
@@ -3180,9 +3111,7 @@
       <c r="C77" s="40">
         <v>43767.0</v>
       </c>
-      <c r="D77" s="38" t="s">
-        <v>56</v>
-      </c>
+      <c r="D77" s="38"/>
       <c r="E77" s="24"/>
       <c r="F77" s="24"/>
       <c r="G77" s="3"/>
@@ -3208,14 +3137,12 @@
     </row>
     <row r="78">
       <c r="A78" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B78" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="B78" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="C78" s="38" t="s">
-        <v>56</v>
-      </c>
+      <c r="C78" s="38"/>
       <c r="D78" s="40">
         <v>36951.0</v>
       </c>
@@ -3244,7 +3171,7 @@
     </row>
     <row r="79">
       <c r="A79" s="38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B79" s="40">
         <v>42779.0</v>
@@ -3280,10 +3207,10 @@
     </row>
     <row r="80">
       <c r="A80" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B80" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C80" s="40">
         <v>44146.0</v>
@@ -3316,14 +3243,12 @@
     </row>
     <row r="81">
       <c r="A81" s="38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B81" s="40">
         <v>49106.0</v>
       </c>
-      <c r="C81" s="38" t="s">
-        <v>56</v>
-      </c>
+      <c r="C81" s="38"/>
       <c r="D81" s="40">
         <v>48592.0</v>
       </c>

--- a/datastatic/datasets/online/SDG5_Women_teacher_tertiary_OECD:2014.xlsx
+++ b/datastatic/datasets/online/SDG5_Women_teacher_tertiary_OECD:2014.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="A_women_teacher_tertiary_2013_oecd.csv" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="A_women_teacher_tertiary_2013_o" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>

--- a/datastatic/datasets/online/SDG5_Women_teacher_tertiary_OECD:2014.xlsx
+++ b/datastatic/datasets/online/SDG5_Women_teacher_tertiary_OECD:2014.xlsx
@@ -349,7 +349,7 @@
     <numFmt numFmtId="164" formatCode="d.m"/>
     <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -409,6 +409,11 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -455,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -574,6 +579,9 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1797,11 +1805,13 @@
       <c r="A39" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="40">
+      <c r="B39" s="40">
         <v>44012.0</v>
       </c>
-      <c r="D39" s="40">
+      <c r="C39" s="41">
+        <v>44012.0</v>
+      </c>
+      <c r="D39" s="41">
         <v>43769.0</v>
       </c>
       <c r="E39" s="24"/>
@@ -1831,13 +1841,13 @@
       <c r="A40" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="40">
+      <c r="B40" s="41">
         <v>42555.0</v>
       </c>
-      <c r="C40" s="40">
+      <c r="C40" s="41">
         <v>42101.0</v>
       </c>
-      <c r="D40" s="40">
+      <c r="D40" s="41">
         <v>41522.0</v>
       </c>
       <c r="E40" s="24"/>
@@ -1867,13 +1877,13 @@
       <c r="A41" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="40">
+      <c r="B41" s="41">
         <v>48168.0</v>
       </c>
-      <c r="C41" s="40">
+      <c r="C41" s="41">
         <v>46877.0</v>
       </c>
-      <c r="D41" s="40">
+      <c r="D41" s="41">
         <v>45965.0</v>
       </c>
       <c r="E41" s="24"/>
@@ -1903,13 +1913,13 @@
       <c r="A42" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="40">
+      <c r="B42" s="41">
         <v>45412.0</v>
       </c>
-      <c r="C42" s="40">
+      <c r="C42" s="41">
         <v>45111.0</v>
       </c>
-      <c r="D42" s="40">
+      <c r="D42" s="41">
         <v>45176.0</v>
       </c>
       <c r="E42" s="24"/>
@@ -1939,13 +1949,13 @@
       <c r="A43" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="40">
+      <c r="B43" s="41">
         <v>49363.0</v>
       </c>
-      <c r="C43" s="40">
+      <c r="C43" s="41">
         <v>49364.0</v>
       </c>
-      <c r="D43" s="40">
+      <c r="D43" s="41">
         <v>49364.0</v>
       </c>
       <c r="E43" s="24"/>
@@ -2005,10 +2015,10 @@
       <c r="A45" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="40">
+      <c r="B45" s="41">
         <v>42977.0</v>
       </c>
-      <c r="C45" s="40">
+      <c r="C45" s="41">
         <v>45062.0</v>
       </c>
       <c r="D45" s="38"/>
@@ -2042,7 +2052,7 @@
       <c r="B46" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="40">
+      <c r="C46" s="41">
         <v>35934.0</v>
       </c>
       <c r="D46" s="38"/>
@@ -2073,13 +2083,13 @@
       <c r="A47" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="40">
+      <c r="B47" s="41">
         <v>39874.0</v>
       </c>
-      <c r="C47" s="40">
+      <c r="C47" s="41">
         <v>38003.0</v>
       </c>
-      <c r="D47" s="40">
+      <c r="D47" s="41">
         <v>36952.0</v>
       </c>
       <c r="E47" s="24"/>
@@ -2109,7 +2119,7 @@
       <c r="A48" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="40">
+      <c r="B48" s="41">
         <v>41186.0</v>
       </c>
       <c r="C48" s="38"/>
@@ -2141,7 +2151,7 @@
       <c r="A49" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B49" s="40">
+      <c r="B49" s="41">
         <v>48938.0</v>
       </c>
       <c r="C49" s="38"/>
@@ -2173,13 +2183,13 @@
       <c r="A50" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="40">
+      <c r="B50" s="41">
         <v>50294.0</v>
       </c>
-      <c r="C50" s="40">
+      <c r="C50" s="41">
         <v>50689.0</v>
       </c>
-      <c r="D50" s="40">
+      <c r="D50" s="41">
         <v>50272.0</v>
       </c>
       <c r="E50" s="24"/>
@@ -2209,13 +2219,13 @@
       <c r="A51" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="40">
+      <c r="B51" s="41">
         <v>39938.0</v>
       </c>
-      <c r="C51" s="40">
+      <c r="C51" s="41">
         <v>37232.0</v>
       </c>
-      <c r="D51" s="40">
+      <c r="D51" s="41">
         <v>37095.0</v>
       </c>
       <c r="E51" s="24"/>
@@ -2245,13 +2255,13 @@
       <c r="A52" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="40">
+      <c r="B52" s="41">
         <v>38018.0</v>
       </c>
-      <c r="C52" s="40">
+      <c r="C52" s="41">
         <v>37711.0</v>
       </c>
-      <c r="D52" s="40">
+      <c r="D52" s="41">
         <v>36831.0</v>
       </c>
       <c r="E52" s="24"/>
@@ -2281,10 +2291,10 @@
       <c r="A53" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="B53" s="40">
+      <c r="B53" s="41">
         <v>32705.0</v>
       </c>
-      <c r="C53" s="40">
+      <c r="C53" s="41">
         <v>33093.0</v>
       </c>
       <c r="D53" s="38"/>
@@ -2315,13 +2325,13 @@
       <c r="A54" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="B54" s="40">
+      <c r="B54" s="41">
         <v>43314.0</v>
       </c>
-      <c r="C54" s="40">
+      <c r="C54" s="41">
         <v>38781.0</v>
       </c>
-      <c r="D54" s="40">
+      <c r="D54" s="41">
         <v>37469.0</v>
       </c>
       <c r="E54" s="24"/>
@@ -2411,10 +2421,10 @@
       <c r="A57" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="B57" s="40">
+      <c r="B57" s="41">
         <v>39239.0</v>
       </c>
-      <c r="C57" s="40">
+      <c r="C57" s="41">
         <v>38516.0</v>
       </c>
       <c r="D57" s="38"/>
@@ -2445,10 +2455,10 @@
       <c r="A58" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="B58" s="40">
+      <c r="B58" s="41">
         <v>43997.0</v>
       </c>
-      <c r="C58" s="40">
+      <c r="C58" s="41">
         <v>43997.0</v>
       </c>
       <c r="D58" s="38"/>
@@ -2509,10 +2519,10 @@
       <c r="A60" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="B60" s="40">
+      <c r="B60" s="41">
         <v>37469.0</v>
       </c>
-      <c r="C60" s="40">
+      <c r="C60" s="41">
         <v>36893.0</v>
       </c>
       <c r="D60" s="39" t="s">
@@ -2545,13 +2555,13 @@
       <c r="A61" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="B61" s="40">
+      <c r="B61" s="41">
         <v>26806.0</v>
       </c>
-      <c r="C61" s="40">
+      <c r="C61" s="41">
         <v>25175.0</v>
       </c>
-      <c r="D61" s="40">
+      <c r="D61" s="41">
         <v>25175.0</v>
       </c>
       <c r="E61" s="24"/>
@@ -2581,13 +2591,13 @@
       <c r="A62" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="B62" s="40">
+      <c r="B62" s="41">
         <v>34734.0</v>
       </c>
       <c r="C62" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="D62" s="40">
+      <c r="D62" s="41">
         <v>34481.0</v>
       </c>
       <c r="E62" s="24"/>
@@ -2617,13 +2627,13 @@
       <c r="A63" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="B63" s="40">
+      <c r="B63" s="41">
         <v>55657.0</v>
       </c>
-      <c r="C63" s="40">
+      <c r="C63" s="41">
         <v>56323.0</v>
       </c>
-      <c r="D63" s="40">
+      <c r="D63" s="41">
         <v>57436.0</v>
       </c>
       <c r="E63" s="24"/>
@@ -2653,11 +2663,11 @@
       <c r="A64" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="B64" s="40">
+      <c r="B64" s="41">
         <v>38352.0</v>
       </c>
       <c r="C64" s="38"/>
-      <c r="D64" s="40">
+      <c r="D64" s="41">
         <v>45029.0</v>
       </c>
       <c r="E64" s="24"/>
@@ -2717,13 +2727,13 @@
       <c r="A66" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="B66" s="40">
+      <c r="B66" s="41">
         <v>43508.0</v>
       </c>
-      <c r="C66" s="40">
+      <c r="C66" s="41">
         <v>43184.0</v>
       </c>
-      <c r="D66" s="40">
+      <c r="D66" s="41">
         <v>39998.0</v>
       </c>
       <c r="E66" s="24"/>
@@ -2753,13 +2763,13 @@
       <c r="A67" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="B67" s="40">
+      <c r="B67" s="41">
         <v>49062.0</v>
       </c>
-      <c r="C67" s="40">
+      <c r="C67" s="41">
         <v>48702.0</v>
       </c>
-      <c r="D67" s="40">
+      <c r="D67" s="41">
         <v>48736.0</v>
       </c>
       <c r="E67" s="24"/>
@@ -2789,13 +2799,13 @@
       <c r="A68" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="B68" s="40">
+      <c r="B68" s="41">
         <v>45246.0</v>
       </c>
-      <c r="C68" s="40">
+      <c r="C68" s="41">
         <v>45063.0</v>
       </c>
-      <c r="D68" s="40">
+      <c r="D68" s="41">
         <v>43573.0</v>
       </c>
       <c r="E68" s="24"/>
@@ -2825,13 +2835,13 @@
       <c r="A69" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="B69" s="40">
+      <c r="B69" s="41">
         <v>44228.0</v>
       </c>
-      <c r="C69" s="40">
+      <c r="C69" s="41">
         <v>44094.0</v>
       </c>
-      <c r="D69" s="40">
+      <c r="D69" s="41">
         <v>43561.0</v>
       </c>
       <c r="E69" s="24"/>
@@ -2861,13 +2871,13 @@
       <c r="A70" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="B70" s="40">
+      <c r="B70" s="41">
         <v>43978.0</v>
       </c>
-      <c r="C70" s="40">
+      <c r="C70" s="41">
         <v>44045.0</v>
       </c>
-      <c r="D70" s="40">
+      <c r="D70" s="41">
         <v>43805.0</v>
       </c>
       <c r="E70" s="24"/>
@@ -2897,13 +2907,13 @@
       <c r="A71" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="B71" s="40">
+      <c r="B71" s="41">
         <v>56506.0</v>
       </c>
-      <c r="C71" s="40">
+      <c r="C71" s="41">
         <v>58156.0</v>
       </c>
-      <c r="D71" s="40">
+      <c r="D71" s="41">
         <v>56347.0</v>
       </c>
       <c r="E71" s="24"/>
@@ -2933,10 +2943,10 @@
       <c r="A72" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="B72" s="40">
+      <c r="B72" s="41">
         <v>40491.0</v>
       </c>
-      <c r="C72" s="40">
+      <c r="C72" s="41">
         <v>40491.0</v>
       </c>
       <c r="D72" s="38"/>
@@ -2967,13 +2977,13 @@
       <c r="A73" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="B73" s="40">
+      <c r="B73" s="41">
         <v>44851.0</v>
       </c>
-      <c r="C73" s="40">
+      <c r="C73" s="41">
         <v>44685.0</v>
       </c>
-      <c r="D73" s="40">
+      <c r="D73" s="41">
         <v>44331.0</v>
       </c>
       <c r="E73" s="24"/>
@@ -3003,13 +3013,13 @@
       <c r="A74" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="B74" s="40">
+      <c r="B74" s="41">
         <v>38799.0</v>
       </c>
-      <c r="C74" s="40">
+      <c r="C74" s="41">
         <v>39741.0</v>
       </c>
-      <c r="D74" s="40">
+      <c r="D74" s="41">
         <v>39004.0</v>
       </c>
       <c r="E74" s="24"/>
@@ -3069,13 +3079,13 @@
       <c r="A76" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="B76" s="40">
+      <c r="B76" s="41">
         <v>41712.0</v>
       </c>
-      <c r="C76" s="40">
+      <c r="C76" s="41">
         <v>40693.0</v>
       </c>
-      <c r="D76" s="40">
+      <c r="D76" s="41">
         <v>40204.0</v>
       </c>
       <c r="E76" s="24"/>
@@ -3105,10 +3115,10 @@
       <c r="A77" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="B77" s="40">
+      <c r="B77" s="41">
         <v>43947.0</v>
       </c>
-      <c r="C77" s="40">
+      <c r="C77" s="41">
         <v>43767.0</v>
       </c>
       <c r="D77" s="38"/>
@@ -3143,7 +3153,7 @@
         <v>99</v>
       </c>
       <c r="C78" s="38"/>
-      <c r="D78" s="40">
+      <c r="D78" s="41">
         <v>36951.0</v>
       </c>
       <c r="E78" s="24"/>
@@ -3173,13 +3183,13 @@
       <c r="A79" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="B79" s="40">
+      <c r="B79" s="41">
         <v>42779.0</v>
       </c>
-      <c r="C79" s="40">
+      <c r="C79" s="41">
         <v>41565.0</v>
       </c>
-      <c r="D79" s="40">
+      <c r="D79" s="41">
         <v>41131.0</v>
       </c>
       <c r="E79" s="24"/>
@@ -3212,10 +3222,10 @@
       <c r="B80" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="C80" s="40">
+      <c r="C80" s="41">
         <v>44146.0</v>
       </c>
-      <c r="D80" s="40">
+      <c r="D80" s="41">
         <v>43752.0</v>
       </c>
       <c r="E80" s="3"/>
@@ -3245,11 +3255,11 @@
       <c r="A81" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="B81" s="40">
+      <c r="B81" s="41">
         <v>49106.0</v>
       </c>
       <c r="C81" s="38"/>
-      <c r="D81" s="40">
+      <c r="D81" s="41">
         <v>48592.0</v>
       </c>
       <c r="E81" s="3"/>

--- a/datastatic/datasets/online/SDG5_Women_teacher_tertiary_OECD:2014.xlsx
+++ b/datastatic/datasets/online/SDG5_Women_teacher_tertiary_OECD:2014.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="A_women_teacher_tertiary_2013_oecd.csv" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="A_women_teacher_tertiary_2013_o" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -349,7 +349,7 @@
     <numFmt numFmtId="164" formatCode="d.m"/>
     <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -409,6 +409,11 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -455,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -574,6 +579,9 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1797,11 +1805,13 @@
       <c r="A39" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="40">
+      <c r="B39" s="40">
         <v>44012.0</v>
       </c>
-      <c r="D39" s="40">
+      <c r="C39" s="41">
+        <v>44012.0</v>
+      </c>
+      <c r="D39" s="41">
         <v>43769.0</v>
       </c>
       <c r="E39" s="24"/>
@@ -1831,13 +1841,13 @@
       <c r="A40" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="40">
+      <c r="B40" s="41">
         <v>42555.0</v>
       </c>
-      <c r="C40" s="40">
+      <c r="C40" s="41">
         <v>42101.0</v>
       </c>
-      <c r="D40" s="40">
+      <c r="D40" s="41">
         <v>41522.0</v>
       </c>
       <c r="E40" s="24"/>
@@ -1867,13 +1877,13 @@
       <c r="A41" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="40">
+      <c r="B41" s="41">
         <v>48168.0</v>
       </c>
-      <c r="C41" s="40">
+      <c r="C41" s="41">
         <v>46877.0</v>
       </c>
-      <c r="D41" s="40">
+      <c r="D41" s="41">
         <v>45965.0</v>
       </c>
       <c r="E41" s="24"/>
@@ -1903,13 +1913,13 @@
       <c r="A42" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="40">
+      <c r="B42" s="41">
         <v>45412.0</v>
       </c>
-      <c r="C42" s="40">
+      <c r="C42" s="41">
         <v>45111.0</v>
       </c>
-      <c r="D42" s="40">
+      <c r="D42" s="41">
         <v>45176.0</v>
       </c>
       <c r="E42" s="24"/>
@@ -1939,13 +1949,13 @@
       <c r="A43" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="40">
+      <c r="B43" s="41">
         <v>49363.0</v>
       </c>
-      <c r="C43" s="40">
+      <c r="C43" s="41">
         <v>49364.0</v>
       </c>
-      <c r="D43" s="40">
+      <c r="D43" s="41">
         <v>49364.0</v>
       </c>
       <c r="E43" s="24"/>
@@ -2005,10 +2015,10 @@
       <c r="A45" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="40">
+      <c r="B45" s="41">
         <v>42977.0</v>
       </c>
-      <c r="C45" s="40">
+      <c r="C45" s="41">
         <v>45062.0</v>
       </c>
       <c r="D45" s="38"/>
@@ -2042,7 +2052,7 @@
       <c r="B46" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="40">
+      <c r="C46" s="41">
         <v>35934.0</v>
       </c>
       <c r="D46" s="38"/>
@@ -2073,13 +2083,13 @@
       <c r="A47" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="40">
+      <c r="B47" s="41">
         <v>39874.0</v>
       </c>
-      <c r="C47" s="40">
+      <c r="C47" s="41">
         <v>38003.0</v>
       </c>
-      <c r="D47" s="40">
+      <c r="D47" s="41">
         <v>36952.0</v>
       </c>
       <c r="E47" s="24"/>
@@ -2109,7 +2119,7 @@
       <c r="A48" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="40">
+      <c r="B48" s="41">
         <v>41186.0</v>
       </c>
       <c r="C48" s="38"/>
@@ -2141,7 +2151,7 @@
       <c r="A49" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B49" s="40">
+      <c r="B49" s="41">
         <v>48938.0</v>
       </c>
       <c r="C49" s="38"/>
@@ -2173,13 +2183,13 @@
       <c r="A50" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="40">
+      <c r="B50" s="41">
         <v>50294.0</v>
       </c>
-      <c r="C50" s="40">
+      <c r="C50" s="41">
         <v>50689.0</v>
       </c>
-      <c r="D50" s="40">
+      <c r="D50" s="41">
         <v>50272.0</v>
       </c>
       <c r="E50" s="24"/>
@@ -2209,13 +2219,13 @@
       <c r="A51" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="40">
+      <c r="B51" s="41">
         <v>39938.0</v>
       </c>
-      <c r="C51" s="40">
+      <c r="C51" s="41">
         <v>37232.0</v>
       </c>
-      <c r="D51" s="40">
+      <c r="D51" s="41">
         <v>37095.0</v>
       </c>
       <c r="E51" s="24"/>
@@ -2245,13 +2255,13 @@
       <c r="A52" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="40">
+      <c r="B52" s="41">
         <v>38018.0</v>
       </c>
-      <c r="C52" s="40">
+      <c r="C52" s="41">
         <v>37711.0</v>
       </c>
-      <c r="D52" s="40">
+      <c r="D52" s="41">
         <v>36831.0</v>
       </c>
       <c r="E52" s="24"/>
@@ -2281,10 +2291,10 @@
       <c r="A53" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="B53" s="40">
+      <c r="B53" s="41">
         <v>32705.0</v>
       </c>
-      <c r="C53" s="40">
+      <c r="C53" s="41">
         <v>33093.0</v>
       </c>
       <c r="D53" s="38"/>
@@ -2315,13 +2325,13 @@
       <c r="A54" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="B54" s="40">
+      <c r="B54" s="41">
         <v>43314.0</v>
       </c>
-      <c r="C54" s="40">
+      <c r="C54" s="41">
         <v>38781.0</v>
       </c>
-      <c r="D54" s="40">
+      <c r="D54" s="41">
         <v>37469.0</v>
       </c>
       <c r="E54" s="24"/>
@@ -2411,10 +2421,10 @@
       <c r="A57" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="B57" s="40">
+      <c r="B57" s="41">
         <v>39239.0</v>
       </c>
-      <c r="C57" s="40">
+      <c r="C57" s="41">
         <v>38516.0</v>
       </c>
       <c r="D57" s="38"/>
@@ -2445,10 +2455,10 @@
       <c r="A58" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="B58" s="40">
+      <c r="B58" s="41">
         <v>43997.0</v>
       </c>
-      <c r="C58" s="40">
+      <c r="C58" s="41">
         <v>43997.0</v>
       </c>
       <c r="D58" s="38"/>
@@ -2509,10 +2519,10 @@
       <c r="A60" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="B60" s="40">
+      <c r="B60" s="41">
         <v>37469.0</v>
       </c>
-      <c r="C60" s="40">
+      <c r="C60" s="41">
         <v>36893.0</v>
       </c>
       <c r="D60" s="39" t="s">
@@ -2545,13 +2555,13 @@
       <c r="A61" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="B61" s="40">
+      <c r="B61" s="41">
         <v>26806.0</v>
       </c>
-      <c r="C61" s="40">
+      <c r="C61" s="41">
         <v>25175.0</v>
       </c>
-      <c r="D61" s="40">
+      <c r="D61" s="41">
         <v>25175.0</v>
       </c>
       <c r="E61" s="24"/>
@@ -2581,13 +2591,13 @@
       <c r="A62" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="B62" s="40">
+      <c r="B62" s="41">
         <v>34734.0</v>
       </c>
       <c r="C62" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="D62" s="40">
+      <c r="D62" s="41">
         <v>34481.0</v>
       </c>
       <c r="E62" s="24"/>
@@ -2617,13 +2627,13 @@
       <c r="A63" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="B63" s="40">
+      <c r="B63" s="41">
         <v>55657.0</v>
       </c>
-      <c r="C63" s="40">
+      <c r="C63" s="41">
         <v>56323.0</v>
       </c>
-      <c r="D63" s="40">
+      <c r="D63" s="41">
         <v>57436.0</v>
       </c>
       <c r="E63" s="24"/>
@@ -2653,11 +2663,11 @@
       <c r="A64" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="B64" s="40">
+      <c r="B64" s="41">
         <v>38352.0</v>
       </c>
       <c r="C64" s="38"/>
-      <c r="D64" s="40">
+      <c r="D64" s="41">
         <v>45029.0</v>
       </c>
       <c r="E64" s="24"/>
@@ -2717,13 +2727,13 @@
       <c r="A66" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="B66" s="40">
+      <c r="B66" s="41">
         <v>43508.0</v>
       </c>
-      <c r="C66" s="40">
+      <c r="C66" s="41">
         <v>43184.0</v>
       </c>
-      <c r="D66" s="40">
+      <c r="D66" s="41">
         <v>39998.0</v>
       </c>
       <c r="E66" s="24"/>
@@ -2753,13 +2763,13 @@
       <c r="A67" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="B67" s="40">
+      <c r="B67" s="41">
         <v>49062.0</v>
       </c>
-      <c r="C67" s="40">
+      <c r="C67" s="41">
         <v>48702.0</v>
       </c>
-      <c r="D67" s="40">
+      <c r="D67" s="41">
         <v>48736.0</v>
       </c>
       <c r="E67" s="24"/>
@@ -2789,13 +2799,13 @@
       <c r="A68" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="B68" s="40">
+      <c r="B68" s="41">
         <v>45246.0</v>
       </c>
-      <c r="C68" s="40">
+      <c r="C68" s="41">
         <v>45063.0</v>
       </c>
-      <c r="D68" s="40">
+      <c r="D68" s="41">
         <v>43573.0</v>
       </c>
       <c r="E68" s="24"/>
@@ -2825,13 +2835,13 @@
       <c r="A69" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="B69" s="40">
+      <c r="B69" s="41">
         <v>44228.0</v>
       </c>
-      <c r="C69" s="40">
+      <c r="C69" s="41">
         <v>44094.0</v>
       </c>
-      <c r="D69" s="40">
+      <c r="D69" s="41">
         <v>43561.0</v>
       </c>
       <c r="E69" s="24"/>
@@ -2861,13 +2871,13 @@
       <c r="A70" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="B70" s="40">
+      <c r="B70" s="41">
         <v>43978.0</v>
       </c>
-      <c r="C70" s="40">
+      <c r="C70" s="41">
         <v>44045.0</v>
       </c>
-      <c r="D70" s="40">
+      <c r="D70" s="41">
         <v>43805.0</v>
       </c>
       <c r="E70" s="24"/>
@@ -2897,13 +2907,13 @@
       <c r="A71" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="B71" s="40">
+      <c r="B71" s="41">
         <v>56506.0</v>
       </c>
-      <c r="C71" s="40">
+      <c r="C71" s="41">
         <v>58156.0</v>
       </c>
-      <c r="D71" s="40">
+      <c r="D71" s="41">
         <v>56347.0</v>
       </c>
       <c r="E71" s="24"/>
@@ -2933,10 +2943,10 @@
       <c r="A72" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="B72" s="40">
+      <c r="B72" s="41">
         <v>40491.0</v>
       </c>
-      <c r="C72" s="40">
+      <c r="C72" s="41">
         <v>40491.0</v>
       </c>
       <c r="D72" s="38"/>
@@ -2967,13 +2977,13 @@
       <c r="A73" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="B73" s="40">
+      <c r="B73" s="41">
         <v>44851.0</v>
       </c>
-      <c r="C73" s="40">
+      <c r="C73" s="41">
         <v>44685.0</v>
       </c>
-      <c r="D73" s="40">
+      <c r="D73" s="41">
         <v>44331.0</v>
       </c>
       <c r="E73" s="24"/>
@@ -3003,13 +3013,13 @@
       <c r="A74" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="B74" s="40">
+      <c r="B74" s="41">
         <v>38799.0</v>
       </c>
-      <c r="C74" s="40">
+      <c r="C74" s="41">
         <v>39741.0</v>
       </c>
-      <c r="D74" s="40">
+      <c r="D74" s="41">
         <v>39004.0</v>
       </c>
       <c r="E74" s="24"/>
@@ -3069,13 +3079,13 @@
       <c r="A76" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="B76" s="40">
+      <c r="B76" s="41">
         <v>41712.0</v>
       </c>
-      <c r="C76" s="40">
+      <c r="C76" s="41">
         <v>40693.0</v>
       </c>
-      <c r="D76" s="40">
+      <c r="D76" s="41">
         <v>40204.0</v>
       </c>
       <c r="E76" s="24"/>
@@ -3105,10 +3115,10 @@
       <c r="A77" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="B77" s="40">
+      <c r="B77" s="41">
         <v>43947.0</v>
       </c>
-      <c r="C77" s="40">
+      <c r="C77" s="41">
         <v>43767.0</v>
       </c>
       <c r="D77" s="38"/>
@@ -3143,7 +3153,7 @@
         <v>99</v>
       </c>
       <c r="C78" s="38"/>
-      <c r="D78" s="40">
+      <c r="D78" s="41">
         <v>36951.0</v>
       </c>
       <c r="E78" s="24"/>
@@ -3173,13 +3183,13 @@
       <c r="A79" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="B79" s="40">
+      <c r="B79" s="41">
         <v>42779.0</v>
       </c>
-      <c r="C79" s="40">
+      <c r="C79" s="41">
         <v>41565.0</v>
       </c>
-      <c r="D79" s="40">
+      <c r="D79" s="41">
         <v>41131.0</v>
       </c>
       <c r="E79" s="24"/>
@@ -3212,10 +3222,10 @@
       <c r="B80" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="C80" s="40">
+      <c r="C80" s="41">
         <v>44146.0</v>
       </c>
-      <c r="D80" s="40">
+      <c r="D80" s="41">
         <v>43752.0</v>
       </c>
       <c r="E80" s="3"/>
@@ -3245,11 +3255,11 @@
       <c r="A81" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="B81" s="40">
+      <c r="B81" s="41">
         <v>49106.0</v>
       </c>
       <c r="C81" s="38"/>
-      <c r="D81" s="40">
+      <c r="D81" s="41">
         <v>48592.0</v>
       </c>
       <c r="E81" s="3"/>

--- a/datastatic/datasets/online/SDG5_Women_teacher_tertiary_OECD:2014.xlsx
+++ b/datastatic/datasets/online/SDG5_Women_teacher_tertiary_OECD:2014.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
@@ -593,7 +593,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 

--- a/datastatic/datasets/online/SDG5_Women_teacher_tertiary_OECD:2014.xlsx
+++ b/datastatic/datasets/online/SDG5_Women_teacher_tertiary_OECD:2014.xlsx
@@ -593,7 +593,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 

--- a/datastatic/datasets/online/SDG5_Women_teacher_tertiary_OECD:2014.xlsx
+++ b/datastatic/datasets/online/SDG5_Women_teacher_tertiary_OECD:2014.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
   <si>
     <t>original_title</t>
   </si>
@@ -212,9 +212,6 @@
     <t>Canada</t>
   </si>
   <si>
-    <t>Chile</t>
-  </si>
-  <si>
     <t>China</t>
   </si>
   <si>
@@ -248,19 +245,10 @@
     <t>Hungary</t>
   </si>
   <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
     <t>Indonesia</t>
   </si>
   <si>
     <t>Ireland</t>
-  </si>
-  <si>
-    <t>Israel</t>
   </si>
   <si>
     <t>Italy</t>
@@ -282,9 +270,6 @@
   </si>
   <si>
     <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>Mexico</t>
   </si>
   <si>
     <t>Netherlands</t>
@@ -312,9 +297,6 @@
   </si>
   <si>
     <t>Slovenia</t>
-  </si>
-  <si>
-    <t>South Africa</t>
   </si>
   <si>
     <t>Spain</t>
@@ -1985,13 +1967,17 @@
       <c r="A44" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
+      <c r="B44" s="41">
+        <v>42977.0</v>
+      </c>
+      <c r="C44" s="41">
+        <v>45062.0</v>
+      </c>
       <c r="D44" s="38"/>
       <c r="E44" s="24"/>
       <c r="F44" s="36"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="3"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="24"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -2015,17 +2001,17 @@
       <c r="A45" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="41">
-        <v>42977.0</v>
+      <c r="B45" s="39" t="s">
+        <v>63</v>
       </c>
       <c r="C45" s="41">
-        <v>45062.0</v>
+        <v>35934.0</v>
       </c>
       <c r="D45" s="38"/>
       <c r="E45" s="24"/>
       <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="24"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -2047,15 +2033,17 @@
     </row>
     <row r="46">
       <c r="A46" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" s="39" t="s">
         <v>64</v>
       </c>
+      <c r="B46" s="41">
+        <v>39874.0</v>
+      </c>
       <c r="C46" s="41">
-        <v>35934.0</v>
+        <v>38003.0</v>
       </c>
-      <c r="D46" s="38"/>
+      <c r="D46" s="41">
+        <v>36952.0</v>
+      </c>
       <c r="E46" s="24"/>
       <c r="F46" s="36"/>
       <c r="G46" s="37"/>
@@ -2084,14 +2072,10 @@
         <v>65</v>
       </c>
       <c r="B47" s="41">
-        <v>39874.0</v>
+        <v>41186.0</v>
       </c>
-      <c r="C47" s="41">
-        <v>38003.0</v>
-      </c>
-      <c r="D47" s="41">
-        <v>36952.0</v>
-      </c>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
       <c r="E47" s="24"/>
       <c r="F47" s="36"/>
       <c r="G47" s="37"/>
@@ -2120,14 +2104,14 @@
         <v>66</v>
       </c>
       <c r="B48" s="41">
-        <v>41186.0</v>
+        <v>48938.0</v>
       </c>
       <c r="C48" s="38"/>
       <c r="D48" s="38"/>
       <c r="E48" s="24"/>
       <c r="F48" s="36"/>
       <c r="G48" s="37"/>
-      <c r="H48" s="3"/>
+      <c r="H48" s="24"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -2152,14 +2136,18 @@
         <v>67</v>
       </c>
       <c r="B49" s="41">
-        <v>48938.0</v>
+        <v>50294.0</v>
       </c>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
+      <c r="C49" s="41">
+        <v>50689.0</v>
+      </c>
+      <c r="D49" s="41">
+        <v>50272.0</v>
+      </c>
       <c r="E49" s="24"/>
       <c r="F49" s="36"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="24"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -2184,17 +2172,17 @@
         <v>68</v>
       </c>
       <c r="B50" s="41">
-        <v>50294.0</v>
+        <v>39938.0</v>
       </c>
       <c r="C50" s="41">
-        <v>50689.0</v>
+        <v>37232.0</v>
       </c>
       <c r="D50" s="41">
-        <v>50272.0</v>
+        <v>37095.0</v>
       </c>
       <c r="E50" s="24"/>
       <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
+      <c r="G50" s="37"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
@@ -2220,13 +2208,13 @@
         <v>69</v>
       </c>
       <c r="B51" s="41">
-        <v>39938.0</v>
+        <v>38018.0</v>
       </c>
       <c r="C51" s="41">
-        <v>37232.0</v>
+        <v>37711.0</v>
       </c>
       <c r="D51" s="41">
-        <v>37095.0</v>
+        <v>36831.0</v>
       </c>
       <c r="E51" s="24"/>
       <c r="F51" s="36"/>
@@ -2256,14 +2244,12 @@
         <v>70</v>
       </c>
       <c r="B52" s="41">
-        <v>38018.0</v>
+        <v>32705.0</v>
       </c>
       <c r="C52" s="41">
-        <v>37711.0</v>
+        <v>33093.0</v>
       </c>
-      <c r="D52" s="41">
-        <v>36831.0</v>
-      </c>
+      <c r="D52" s="38"/>
       <c r="E52" s="24"/>
       <c r="F52" s="36"/>
       <c r="G52" s="37"/>
@@ -2292,12 +2278,14 @@
         <v>71</v>
       </c>
       <c r="B53" s="41">
-        <v>32705.0</v>
+        <v>43314.0</v>
       </c>
       <c r="C53" s="41">
-        <v>33093.0</v>
+        <v>38781.0</v>
       </c>
-      <c r="D53" s="38"/>
+      <c r="D53" s="41">
+        <v>37469.0</v>
+      </c>
       <c r="E53" s="24"/>
       <c r="F53" s="36"/>
       <c r="G53" s="37"/>
@@ -2326,14 +2314,12 @@
         <v>72</v>
       </c>
       <c r="B54" s="41">
-        <v>43314.0</v>
+        <v>39239.0</v>
       </c>
       <c r="C54" s="41">
-        <v>38781.0</v>
+        <v>38516.0</v>
       </c>
-      <c r="D54" s="41">
-        <v>37469.0</v>
-      </c>
+      <c r="D54" s="38"/>
       <c r="E54" s="24"/>
       <c r="F54" s="36"/>
       <c r="G54" s="37"/>
@@ -2361,13 +2347,17 @@
       <c r="A55" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B55" s="38"/>
-      <c r="C55" s="38"/>
+      <c r="B55" s="41">
+        <v>43997.0</v>
+      </c>
+      <c r="C55" s="41">
+        <v>43997.0</v>
+      </c>
       <c r="D55" s="38"/>
       <c r="E55" s="24"/>
       <c r="F55" s="36"/>
       <c r="G55" s="37"/>
-      <c r="H55" s="3"/>
+      <c r="H55" s="24"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -2391,9 +2381,15 @@
       <c r="A56" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B56" s="38"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
+      <c r="B56" s="41">
+        <v>37469.0</v>
+      </c>
+      <c r="C56" s="41">
+        <v>36893.0</v>
+      </c>
+      <c r="D56" s="39" t="s">
+        <v>75</v>
+      </c>
       <c r="E56" s="24"/>
       <c r="F56" s="36"/>
       <c r="G56" s="37"/>
@@ -2419,15 +2415,17 @@
     </row>
     <row r="57">
       <c r="A57" s="38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B57" s="41">
-        <v>39239.0</v>
+        <v>26806.0</v>
       </c>
       <c r="C57" s="41">
-        <v>38516.0</v>
+        <v>25175.0</v>
       </c>
-      <c r="D57" s="38"/>
+      <c r="D57" s="41">
+        <v>25175.0</v>
+      </c>
       <c r="E57" s="24"/>
       <c r="F57" s="36"/>
       <c r="G57" s="37"/>
@@ -2453,19 +2451,21 @@
     </row>
     <row r="58">
       <c r="A58" s="38" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B58" s="41">
-        <v>43997.0</v>
+        <v>34734.0</v>
       </c>
-      <c r="C58" s="41">
-        <v>43997.0</v>
+      <c r="C58" s="39" t="s">
+        <v>78</v>
       </c>
-      <c r="D58" s="38"/>
+      <c r="D58" s="41">
+        <v>34481.0</v>
+      </c>
       <c r="E58" s="24"/>
       <c r="F58" s="36"/>
       <c r="G58" s="37"/>
-      <c r="H58" s="24"/>
+      <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
@@ -2487,15 +2487,21 @@
     </row>
     <row r="59">
       <c r="A59" s="38" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
-      <c r="B59" s="38"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
+      <c r="B59" s="41">
+        <v>55657.0</v>
+      </c>
+      <c r="C59" s="41">
+        <v>56323.0</v>
+      </c>
+      <c r="D59" s="41">
+        <v>57436.0</v>
+      </c>
       <c r="E59" s="24"/>
       <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="3"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="24"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -2517,16 +2523,14 @@
     </row>
     <row r="60">
       <c r="A60" s="38" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B60" s="41">
-        <v>37469.0</v>
+        <v>38352.0</v>
       </c>
-      <c r="C60" s="41">
-        <v>36893.0</v>
-      </c>
-      <c r="D60" s="39" t="s">
-        <v>79</v>
+      <c r="C60" s="38"/>
+      <c r="D60" s="41">
+        <v>45029.0</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="36"/>
@@ -2553,16 +2557,16 @@
     </row>
     <row r="61">
       <c r="A61" s="38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B61" s="41">
-        <v>26806.0</v>
+        <v>43508.0</v>
       </c>
       <c r="C61" s="41">
-        <v>25175.0</v>
+        <v>43184.0</v>
       </c>
       <c r="D61" s="41">
-        <v>25175.0</v>
+        <v>39998.0</v>
       </c>
       <c r="E61" s="24"/>
       <c r="F61" s="36"/>
@@ -2589,21 +2593,21 @@
     </row>
     <row r="62">
       <c r="A62" s="38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B62" s="41">
-        <v>34734.0</v>
+        <v>49062.0</v>
       </c>
-      <c r="C62" s="39" t="s">
-        <v>82</v>
+      <c r="C62" s="41">
+        <v>48702.0</v>
       </c>
       <c r="D62" s="41">
-        <v>34481.0</v>
+        <v>48736.0</v>
       </c>
       <c r="E62" s="24"/>
       <c r="F62" s="36"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="3"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="24"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
@@ -2628,18 +2632,18 @@
         <v>83</v>
       </c>
       <c r="B63" s="41">
-        <v>55657.0</v>
+        <v>45246.0</v>
       </c>
       <c r="C63" s="41">
-        <v>56323.0</v>
+        <v>45063.0</v>
       </c>
       <c r="D63" s="41">
-        <v>57436.0</v>
+        <v>43573.0</v>
       </c>
       <c r="E63" s="24"/>
       <c r="F63" s="36"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="24"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -2664,11 +2668,13 @@
         <v>84</v>
       </c>
       <c r="B64" s="41">
-        <v>38352.0</v>
+        <v>44228.0</v>
       </c>
-      <c r="C64" s="38"/>
+      <c r="C64" s="41">
+        <v>44094.0</v>
+      </c>
       <c r="D64" s="41">
-        <v>45029.0</v>
+        <v>43561.0</v>
       </c>
       <c r="E64" s="24"/>
       <c r="F64" s="36"/>
@@ -2697,13 +2703,19 @@
       <c r="A65" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
+      <c r="B65" s="41">
+        <v>43978.0</v>
+      </c>
+      <c r="C65" s="41">
+        <v>44045.0</v>
+      </c>
+      <c r="D65" s="41">
+        <v>43805.0</v>
+      </c>
       <c r="E65" s="24"/>
       <c r="F65" s="36"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="3"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="24"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
@@ -2728,13 +2740,13 @@
         <v>86</v>
       </c>
       <c r="B66" s="41">
-        <v>43508.0</v>
+        <v>56506.0</v>
       </c>
       <c r="C66" s="41">
-        <v>43184.0</v>
+        <v>58156.0</v>
       </c>
       <c r="D66" s="41">
-        <v>39998.0</v>
+        <v>56347.0</v>
       </c>
       <c r="E66" s="24"/>
       <c r="F66" s="36"/>
@@ -2764,18 +2776,16 @@
         <v>87</v>
       </c>
       <c r="B67" s="41">
-        <v>49062.0</v>
+        <v>40491.0</v>
       </c>
       <c r="C67" s="41">
-        <v>48702.0</v>
+        <v>40491.0</v>
       </c>
-      <c r="D67" s="41">
-        <v>48736.0</v>
-      </c>
+      <c r="D67" s="38"/>
       <c r="E67" s="24"/>
       <c r="F67" s="36"/>
       <c r="G67" s="36"/>
-      <c r="H67" s="24"/>
+      <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
@@ -2800,18 +2810,18 @@
         <v>88</v>
       </c>
       <c r="B68" s="41">
-        <v>45246.0</v>
+        <v>44851.0</v>
       </c>
       <c r="C68" s="41">
-        <v>45063.0</v>
+        <v>44685.0</v>
       </c>
       <c r="D68" s="41">
-        <v>43573.0</v>
+        <v>44331.0</v>
       </c>
       <c r="E68" s="24"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="3"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="24"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
@@ -2836,17 +2846,17 @@
         <v>89</v>
       </c>
       <c r="B69" s="41">
-        <v>44228.0</v>
+        <v>38799.0</v>
       </c>
       <c r="C69" s="41">
-        <v>44094.0</v>
+        <v>39741.0</v>
       </c>
       <c r="D69" s="41">
-        <v>43561.0</v>
+        <v>39004.0</v>
       </c>
       <c r="E69" s="24"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="37"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
@@ -2872,17 +2882,17 @@
         <v>90</v>
       </c>
       <c r="B70" s="41">
-        <v>43978.0</v>
+        <v>41712.0</v>
       </c>
       <c r="C70" s="41">
-        <v>44045.0</v>
+        <v>40693.0</v>
       </c>
       <c r="D70" s="41">
-        <v>43805.0</v>
+        <v>40204.0</v>
       </c>
       <c r="E70" s="24"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="3"/>
       <c r="H70" s="24"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
@@ -2908,18 +2918,16 @@
         <v>91</v>
       </c>
       <c r="B71" s="41">
-        <v>56506.0</v>
+        <v>43947.0</v>
       </c>
       <c r="C71" s="41">
-        <v>58156.0</v>
+        <v>43767.0</v>
       </c>
-      <c r="D71" s="41">
-        <v>56347.0</v>
-      </c>
+      <c r="D71" s="38"/>
       <c r="E71" s="24"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="3"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="24"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
@@ -2943,16 +2951,16 @@
       <c r="A72" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="B72" s="41">
-        <v>40491.0</v>
+      <c r="B72" s="39" t="s">
+        <v>93</v>
       </c>
-      <c r="C72" s="41">
-        <v>40491.0</v>
+      <c r="C72" s="38"/>
+      <c r="D72" s="41">
+        <v>36951.0</v>
       </c>
-      <c r="D72" s="38"/>
       <c r="E72" s="24"/>
-      <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
@@ -2975,16 +2983,16 @@
     </row>
     <row r="73">
       <c r="A73" s="38" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B73" s="41">
-        <v>44851.0</v>
+        <v>42779.0</v>
       </c>
       <c r="C73" s="41">
-        <v>44685.0</v>
+        <v>41565.0</v>
       </c>
       <c r="D73" s="41">
-        <v>44331.0</v>
+        <v>41131.0</v>
       </c>
       <c r="E73" s="24"/>
       <c r="F73" s="24"/>
@@ -3011,19 +3019,19 @@
     </row>
     <row r="74">
       <c r="A74" s="38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
-      <c r="B74" s="41">
-        <v>38799.0</v>
+      <c r="B74" s="39" t="s">
+        <v>96</v>
       </c>
       <c r="C74" s="41">
-        <v>39741.0</v>
+        <v>44146.0</v>
       </c>
       <c r="D74" s="41">
-        <v>39004.0</v>
+        <v>43752.0</v>
       </c>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
@@ -3047,15 +3055,19 @@
     </row>
     <row r="75">
       <c r="A75" s="38" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
-      <c r="B75" s="38"/>
+      <c r="B75" s="41">
+        <v>49106.0</v>
+      </c>
       <c r="C75" s="38"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
+      <c r="D75" s="41">
+        <v>48592.0</v>
+      </c>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
       <c r="G75" s="3"/>
-      <c r="H75" s="24"/>
+      <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
@@ -3076,22 +3088,14 @@
       <c r="Z75" s="3"/>
     </row>
     <row r="76">
-      <c r="A76" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="B76" s="41">
-        <v>41712.0</v>
-      </c>
-      <c r="C76" s="41">
-        <v>40693.0</v>
-      </c>
-      <c r="D76" s="41">
-        <v>40204.0</v>
-      </c>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
       <c r="G76" s="3"/>
-      <c r="H76" s="24"/>
+      <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
@@ -3112,20 +3116,14 @@
       <c r="Z76" s="3"/>
     </row>
     <row r="77">
-      <c r="A77" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="B77" s="41">
-        <v>43947.0</v>
-      </c>
-      <c r="C77" s="41">
-        <v>43767.0</v>
-      </c>
-      <c r="D77" s="38"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
       <c r="G77" s="3"/>
-      <c r="H77" s="24"/>
+      <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
@@ -3146,18 +3144,12 @@
       <c r="Z77" s="3"/>
     </row>
     <row r="78">
-      <c r="A78" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="B78" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="C78" s="38"/>
-      <c r="D78" s="41">
-        <v>36951.0</v>
-      </c>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
@@ -3180,22 +3172,14 @@
       <c r="Z78" s="3"/>
     </row>
     <row r="79">
-      <c r="A79" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="B79" s="41">
-        <v>42779.0</v>
-      </c>
-      <c r="C79" s="41">
-        <v>41565.0</v>
-      </c>
-      <c r="D79" s="41">
-        <v>41131.0</v>
-      </c>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
       <c r="G79" s="3"/>
-      <c r="H79" s="24"/>
+      <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
@@ -3216,18 +3200,10 @@
       <c r="Z79" s="3"/>
     </row>
     <row r="80">
-      <c r="A80" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="B80" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="C80" s="41">
-        <v>44146.0</v>
-      </c>
-      <c r="D80" s="41">
-        <v>43752.0</v>
-      </c>
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -3252,16 +3228,10 @@
       <c r="Z80" s="3"/>
     </row>
     <row r="81">
-      <c r="A81" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="B81" s="41">
-        <v>49106.0</v>
-      </c>
-      <c r="C81" s="38"/>
-      <c r="D81" s="41">
-        <v>48592.0</v>
-      </c>
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
@@ -28821,174 +28791,6 @@
       <c r="Y993" s="3"/>
       <c r="Z993" s="3"/>
     </row>
-    <row r="994">
-      <c r="A994" s="3"/>
-      <c r="B994" s="3"/>
-      <c r="C994" s="3"/>
-      <c r="D994" s="3"/>
-      <c r="E994" s="3"/>
-      <c r="F994" s="3"/>
-      <c r="G994" s="3"/>
-      <c r="H994" s="3"/>
-      <c r="I994" s="3"/>
-      <c r="J994" s="3"/>
-      <c r="K994" s="3"/>
-      <c r="L994" s="3"/>
-      <c r="M994" s="3"/>
-      <c r="N994" s="3"/>
-      <c r="O994" s="3"/>
-      <c r="P994" s="3"/>
-      <c r="Q994" s="3"/>
-      <c r="R994" s="3"/>
-      <c r="S994" s="3"/>
-      <c r="T994" s="3"/>
-      <c r="U994" s="3"/>
-      <c r="V994" s="3"/>
-      <c r="W994" s="3"/>
-      <c r="X994" s="3"/>
-      <c r="Y994" s="3"/>
-      <c r="Z994" s="3"/>
-    </row>
-    <row r="995">
-      <c r="A995" s="3"/>
-      <c r="B995" s="3"/>
-      <c r="C995" s="3"/>
-      <c r="D995" s="3"/>
-      <c r="E995" s="3"/>
-      <c r="F995" s="3"/>
-      <c r="G995" s="3"/>
-      <c r="H995" s="3"/>
-      <c r="I995" s="3"/>
-      <c r="J995" s="3"/>
-      <c r="K995" s="3"/>
-      <c r="L995" s="3"/>
-      <c r="M995" s="3"/>
-      <c r="N995" s="3"/>
-      <c r="O995" s="3"/>
-      <c r="P995" s="3"/>
-      <c r="Q995" s="3"/>
-      <c r="R995" s="3"/>
-      <c r="S995" s="3"/>
-      <c r="T995" s="3"/>
-      <c r="U995" s="3"/>
-      <c r="V995" s="3"/>
-      <c r="W995" s="3"/>
-      <c r="X995" s="3"/>
-      <c r="Y995" s="3"/>
-      <c r="Z995" s="3"/>
-    </row>
-    <row r="996">
-      <c r="A996" s="3"/>
-      <c r="B996" s="3"/>
-      <c r="C996" s="3"/>
-      <c r="D996" s="3"/>
-      <c r="E996" s="3"/>
-      <c r="F996" s="3"/>
-      <c r="G996" s="3"/>
-      <c r="H996" s="3"/>
-      <c r="I996" s="3"/>
-      <c r="J996" s="3"/>
-      <c r="K996" s="3"/>
-      <c r="L996" s="3"/>
-      <c r="M996" s="3"/>
-      <c r="N996" s="3"/>
-      <c r="O996" s="3"/>
-      <c r="P996" s="3"/>
-      <c r="Q996" s="3"/>
-      <c r="R996" s="3"/>
-      <c r="S996" s="3"/>
-      <c r="T996" s="3"/>
-      <c r="U996" s="3"/>
-      <c r="V996" s="3"/>
-      <c r="W996" s="3"/>
-      <c r="X996" s="3"/>
-      <c r="Y996" s="3"/>
-      <c r="Z996" s="3"/>
-    </row>
-    <row r="997">
-      <c r="A997" s="3"/>
-      <c r="B997" s="3"/>
-      <c r="C997" s="3"/>
-      <c r="D997" s="3"/>
-      <c r="E997" s="3"/>
-      <c r="F997" s="3"/>
-      <c r="G997" s="3"/>
-      <c r="H997" s="3"/>
-      <c r="I997" s="3"/>
-      <c r="J997" s="3"/>
-      <c r="K997" s="3"/>
-      <c r="L997" s="3"/>
-      <c r="M997" s="3"/>
-      <c r="N997" s="3"/>
-      <c r="O997" s="3"/>
-      <c r="P997" s="3"/>
-      <c r="Q997" s="3"/>
-      <c r="R997" s="3"/>
-      <c r="S997" s="3"/>
-      <c r="T997" s="3"/>
-      <c r="U997" s="3"/>
-      <c r="V997" s="3"/>
-      <c r="W997" s="3"/>
-      <c r="X997" s="3"/>
-      <c r="Y997" s="3"/>
-      <c r="Z997" s="3"/>
-    </row>
-    <row r="998">
-      <c r="A998" s="3"/>
-      <c r="B998" s="3"/>
-      <c r="C998" s="3"/>
-      <c r="D998" s="3"/>
-      <c r="E998" s="3"/>
-      <c r="F998" s="3"/>
-      <c r="G998" s="3"/>
-      <c r="H998" s="3"/>
-      <c r="I998" s="3"/>
-      <c r="J998" s="3"/>
-      <c r="K998" s="3"/>
-      <c r="L998" s="3"/>
-      <c r="M998" s="3"/>
-      <c r="N998" s="3"/>
-      <c r="O998" s="3"/>
-      <c r="P998" s="3"/>
-      <c r="Q998" s="3"/>
-      <c r="R998" s="3"/>
-      <c r="S998" s="3"/>
-      <c r="T998" s="3"/>
-      <c r="U998" s="3"/>
-      <c r="V998" s="3"/>
-      <c r="W998" s="3"/>
-      <c r="X998" s="3"/>
-      <c r="Y998" s="3"/>
-      <c r="Z998" s="3"/>
-    </row>
-    <row r="999">
-      <c r="A999" s="3"/>
-      <c r="B999" s="3"/>
-      <c r="C999" s="3"/>
-      <c r="D999" s="3"/>
-      <c r="E999" s="3"/>
-      <c r="F999" s="3"/>
-      <c r="G999" s="3"/>
-      <c r="H999" s="3"/>
-      <c r="I999" s="3"/>
-      <c r="J999" s="3"/>
-      <c r="K999" s="3"/>
-      <c r="L999" s="3"/>
-      <c r="M999" s="3"/>
-      <c r="N999" s="3"/>
-      <c r="O999" s="3"/>
-      <c r="P999" s="3"/>
-      <c r="Q999" s="3"/>
-      <c r="R999" s="3"/>
-      <c r="S999" s="3"/>
-      <c r="T999" s="3"/>
-      <c r="U999" s="3"/>
-      <c r="V999" s="3"/>
-      <c r="W999" s="3"/>
-      <c r="X999" s="3"/>
-      <c r="Y999" s="3"/>
-      <c r="Z999" s="3"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId2" ref="B32"/>
